--- a/doc/测试文档/报名表（定制带新注册）测试.xlsx
+++ b/doc/测试文档/报名表（定制带新注册）测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Hot-Tech\git.hot-basketball.com\doc\测试文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9713C299-453F-4D9E-8502-88A520E20FF2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BF0B0AD1-8D3A-42DA-B957-EC4B9A2EEA76}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="9315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,13 +93,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>产生一条报名记录（apps_apply）
-产生一条活动会员记录（event_member）
-若活动已过期或已满人event_member
-不产生（以下相同）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>完成填写
 （填写会员名、短信验证）
 验证会员名、电话号码是否已被使用</t>
@@ -168,6 +161,11 @@
     <t>完成填写
 （部分信息已默认填写）
 验证是否登记过（event_member）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生一条报名记录（apps_apply）
+产生一条活动会员记录（event_member）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -976,7 +974,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1049,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1157,16 +1155,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1174,7 +1172,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" s="7">
         <v>43259</v>
@@ -1185,16 +1183,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1202,7 +1200,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" s="7">
         <v>43259</v>
@@ -1213,16 +1211,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1237,16 +1235,16 @@
         <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>

--- a/doc/测试文档/报名表（定制带新注册）测试.xlsx
+++ b/doc/测试文档/报名表（定制带新注册）测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Hot-Tech\git.hot-basketball.com\doc\测试文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BF0B0AD1-8D3A-42DA-B957-EC4B9A2EEA76}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{670784CB-0CED-42FB-BE04-71E739D980B5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="9315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,7 +974,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/doc/测试文档/报名表（定制带新注册）测试.xlsx
+++ b/doc/测试文档/报名表（定制带新注册）测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Hot-Tech\git.hot-basketball.com\doc\测试文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{670784CB-0CED-42FB-BE04-71E739D980B5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{47813EA7-DC33-406E-9489-10DF2DD7E960}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="9315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>用例描述</t>
   </si>
@@ -166,6 +166,15 @@
   <si>
     <t>产生一条报名记录（apps_apply）
 产生一条活动会员记录（event_member）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已报名会员给提示，并询问是否帮别人报名
+（已添加）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -973,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1166,8 +1175,12 @@
       <c r="E11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1194,7 +1207,9 @@
       <c r="E12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
         <v>15</v>
@@ -1224,8 +1239,12 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="J13" s="7">
         <v>43259</v>
       </c>
@@ -1246,10 +1265,16 @@
       <c r="E14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="J14" s="7">
         <v>43259</v>
       </c>
